--- a/RE/RPA08_견적서메일발송_차수빈/Data/Config.xlsx
+++ b/RE/RPA08_견적서메일발송_차수빈/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RPA08_견적서메일발송_차수빈\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D0511-AC2D-434A-BEE3-721E83450CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E81F9B7-2CD6-405E-8E83-F22B0470F377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -423,12 +423,6 @@
   <si>
     <t>{0}=날짜
 {1}=과제명 Config("과제명").ToString</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;{0} RPA_{1} 결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;처리할 데이터가 없습니다. 확인 부탁드립니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -546,7 +540,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>오피스디포 견적서 _240918.pdf</t>
+    <t>오피스디포_견적서_240918.pdf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{0} RPA_{1} 결과 안내 메일입니다.
+처리할 데이터가 없습니다. 확인 부탁드립니다.
+감사합니다.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
@@ -1266,7 +1266,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -1275,7 +1275,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -1284,7 +1284,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
@@ -1463,7 +1463,7 @@
         <v>112</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>120</v>
@@ -1481,7 +1481,7 @@
         <v>111</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>115</v>
@@ -1492,10 +1492,10 @@
         <v>110</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="46.8">
@@ -1503,7 +1503,7 @@
         <v>121</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>122</v>
@@ -1511,13 +1511,13 @@
     </row>
     <row r="30" spans="1:3" ht="409.6">
       <c r="A30" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6">
@@ -1550,7 +1550,7 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="4"/>
     </row>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.6">
       <c r="A36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="C36" s="4"/>
     </row>
@@ -1597,7 +1597,7 @@
         <v>77</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="38"/>
     </row>
@@ -1680,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
@@ -1953,7 +1953,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>29</v>

--- a/RE/RPA08_견적서메일발송_차수빈/Data/Config.xlsx
+++ b/RE/RPA08_견적서메일발송_차수빈/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RPA08_견적서메일발송_차수빈\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E81F9B7-2CD6-405E-8E83-F22B0470F377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76690A86-07D9-49D8-8C8C-D99F65F38A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -450,72 +450,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;안녕하세요.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;{0} {1} 송부 드립니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;아래의 첨부문서에 해당내역이 정리되어 있으니 참고 부탁드립니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;------------------------------------------------------------------------------&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 매칭 성공 아이템 : {2}&lt;br&gt;
-&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 매칭 실패 아이템 : {3} &lt;/span&gt;&lt;/p&gt; 
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;------------------------------------------------------------------------------&lt;/span&gt;&lt;/p&gt;
-&lt;table cellspacing="0" cellpadding="0" border="1" style="width: 600px; height: 20px; font-size: 10pt; border-width: 0px; border-color: rgb(0, 0, 0); border-collapse: collapse; border-style: solid; background-color: rgb(255, 255, 255); background-image: none; background-repeat: repeat; background-position: 0% 0%;" class=""&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;th style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;총건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" colspan="1" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;미처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 250px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" colspan="1" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;비&amp;nbsp; &amp;nbsp;고&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;/tr&gt;
-&lt;tr&gt;
-&lt;td style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{4}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt; color: rgb(0, 0, 255); font-weight: bold;"&gt;{5}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="color: rgb(255, 0, 0); font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{6}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 250px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;&amp;nbsp;{7}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;/tr&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;안녕하세요.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;{0} {1} 송부 드립니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;아래의 첨부문서에 해당내역이 정리되어 있으니 참고 부탁드립니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;------------------------------------------------------------------------------&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 매칭 성공 아이템 : {2}&lt;br&gt;
-&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;- 매칭 실패 아이템 : {3} &lt;/span&gt;&lt;/p&gt; 
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;------------------------------------------------------------------------------&lt;/span&gt;&lt;/p&gt;
-&lt;table cellspacing="0" cellpadding="0" border="1" style="width: 600px; height: 20px; font-size: 10pt; border-width: 0px; border-color: rgb(0, 0, 0); border-collapse: collapse; border-style: solid; background-color: rgb(255, 255, 255); background-image: none; background-repeat: repeat; background-position: 0% 0%;" class=""&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;th style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;총건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" colspan="1" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;미처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 250px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: #FFCFD0;" colspan="1" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;비&amp;nbsp; &amp;nbsp;고&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;/tr&gt;
-&lt;tr&gt;
-&lt;td style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{4}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt; color: rgb(0, 0, 255); font-weight: bold;"&gt;{5}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 130px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="color: rgb(255, 0, 0); font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;{6}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 250px; height: 10px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;&amp;nbsp;{7}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;/tr&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>{0}=날짜
 {1}=과제명 Config("과제명").ToString
 {2}=in_list성공항목
@@ -544,9 +478,67 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>{0} RPA_{1} 결과 안내 메일입니다.
-처리할 데이터가 없습니다. 확인 부탁드립니다.
-감사합니다.</t>
+    <t>&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;{0} RPA_{1} 결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;처리할 데이터가 없습니다. 확인 부탁드립니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 11pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;안녕하세요.&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;{0} {1} 송부 드립니다.&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;아래의 첨부문서에 해당내역이 정리되어 있으니 참고 부탁드립니다.&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;감사합니다.&lt;/p&gt;
+&lt;hr/&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;- 매칭 성공 아이템 : {2}&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;- 매칭 실패 아이템 : {3}&lt;/p&gt;
+&lt;hr/&gt;
+&lt;table border='1' cellpadding='5' style='border-collapse: collapse; width: 600px;'&gt;
+    &lt;thead&gt;
+        &lt;tr&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;총건수&lt;/th&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;처리건수&lt;/th&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;미처리건수&lt;/th&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;비고&lt;/th&gt;
+        &lt;/tr&gt;
+    &lt;/thead&gt;
+    &lt;tbody&gt;
+        &lt;tr&gt;
+            &lt;td style='text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 11pt;'&gt;{4}&lt;/td&gt;
+            &lt;td style='text-align: center; color: blue; font-family: "Malgun Gothic", sans-serif; font-size: 11pt; font-weight: bold;'&gt;{5}&lt;/td&gt;
+            &lt;td style='text-align: center; color: red; font-family: "Malgun Gothic", sans-serif; font-size: 11pt; font-weight: bold;'&gt;{6}&lt;/td&gt;
+            &lt;td style='text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 11pt;'&gt;{7}&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/tbody&gt;
+&lt;/table&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;안녕하세요.&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;{0} {1} 송부 드립니다.&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;아래의 첨부문서에 해당내역이 정리되어 있으니 참고 부탁드립니다.&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;감사합니다.&lt;/p&gt;
+&lt;hr/&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;- 매칭 성공 아이템 : {2}&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;- 매칭 실패 아이템 : {3}&lt;/p&gt;
+&lt;hr/&gt;
+&lt;table border='1' cellpadding='5' style='border-collapse: collapse; width: 600px;'&gt;
+    &lt;thead&gt;
+        &lt;tr&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;총건수&lt;/th&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;처리건수&lt;/th&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;미처리건수&lt;/th&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;비고&lt;/th&gt;
+        &lt;/tr&gt;
+    &lt;/thead&gt;
+    &lt;tbody&gt;
+        &lt;tr&gt;
+            &lt;td style='text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 11pt;'&gt;{4}&lt;/td&gt;
+            &lt;td style='text-align: center; color: blue; font-family: "Malgun Gothic", sans-serif; font-size: 11pt; font-weight: bold;'&gt;{5}&lt;/td&gt;
+            &lt;td style='text-align: center; color: red; font-family: "Malgun Gothic", sans-serif; font-size: 11pt; font-weight: bold;'&gt;{6}&lt;/td&gt;
+            &lt;td style='text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 11pt;'&gt;{7}&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/tbody&gt;
+&lt;/table&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1216,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
@@ -1463,7 +1455,7 @@
         <v>112</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>120</v>
@@ -1492,10 +1484,10 @@
         <v>110</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="46.8">
@@ -1503,7 +1495,7 @@
         <v>121</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>122</v>
@@ -1514,10 +1506,10 @@
         <v>123</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6">
@@ -1567,10 +1559,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.6">
       <c r="A36" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C36" s="4"/>
     </row>
@@ -1597,7 +1589,7 @@
         <v>77</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" s="38"/>
     </row>
@@ -1680,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/RE/RPA08_견적서메일발송_차수빈/Data/Config.xlsx
+++ b/RE/RPA08_견적서메일발송_차수빈/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RPA08_견적서메일발송_차수빈\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76690A86-07D9-49D8-8C8C-D99F65F38A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9707529-40A0-4E46-845C-8BE165B7EA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,10 +488,41 @@
 &lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;{0} {1} 송부 드립니다.&lt;/p&gt;
 &lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;아래의 첨부문서에 해당내역이 정리되어 있으니 참고 부탁드립니다.&lt;/p&gt;
 &lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;감사합니다.&lt;/p&gt;
-&lt;hr/&gt;
-&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;- 매칭 성공 아이템 : {2}&lt;/p&gt;
-&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;- 매칭 실패 아이템 : {3}&lt;/p&gt;
-&lt;hr/&gt;
+------------------------------------------------------------------------------
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt; margin-bottom: 0;"&gt;- 매칭 성공 아이템 : {2}&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt; margin-top: 0;"&gt;- 매칭 실패 아이템 : {3}&lt;/p&gt;
+------------------------------------------------------------------------------
+&lt;/p&gt;
+&lt;table border='1' cellpadding='5' style='border-collapse: collapse; width: 600px;'&gt;
+    &lt;thead&gt;
+        &lt;tr&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;총건수&lt;/th&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;처리건수&lt;/th&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;미처리건수&lt;/th&gt;
+            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;비고&lt;/th&gt;
+        &lt;/tr&gt;
+    &lt;/thead&gt;
+    &lt;tbody&gt;
+        &lt;tr&gt;
+            &lt;td style='text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 11pt;'&gt;{4}&lt;/td&gt;
+            &lt;td style='text-align: center; color: blue; font-family: "Malgun Gothic", sans-serif; font-size: 11pt; font-weight: bold;'&gt;{5}&lt;/td&gt;
+            &lt;td style='text-align: center; color: red; font-family: "Malgun Gothic", sans-serif; font-size: 11pt; font-weight: bold;'&gt;{6}&lt;/td&gt;
+            &lt;td style='text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 11pt;'&gt;{7}&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/tbody&gt;
+&lt;/table&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;안녕하세요.&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;{0} {1} 송부 드립니다.&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;아래의 첨부문서에 해당내역이 정리되어 있으니 참고 부탁드립니다.&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;감사합니다.&lt;/p&gt;
+------------------------------------------------------------------------------
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt; margin-bottom: 0;"&gt;- 매칭 성공 아이템 : {2}&lt;/p&gt;
+&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt; margin-top: 0;"&gt;- 매칭 실패 아이템 : {3}&lt;/p&gt;
+------------------------------------------------------------------------------
+&lt;/p&gt;
 &lt;table border='1' cellpadding='5' style='border-collapse: collapse; width: 600px;'&gt;
     &lt;thead&gt;
         &lt;tr&gt;
@@ -511,35 +542,6 @@
     &lt;/tbody&gt;
 &lt;/table&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;안녕하세요.&lt;/p&gt;
-&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;{0} {1} 송부 드립니다.&lt;/p&gt;
-&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;아래의 첨부문서에 해당내역이 정리되어 있으니 참고 부탁드립니다.&lt;/p&gt;
-&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;감사합니다.&lt;/p&gt;
-&lt;hr/&gt;
-&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;- 매칭 성공 아이템 : {2}&lt;/p&gt;
-&lt;p style="font-family: 'Malgun Gothic', sans-serif; font-size: 11pt;"&gt;- 매칭 실패 아이템 : {3}&lt;/p&gt;
-&lt;hr/&gt;
-&lt;table border='1' cellpadding='5' style='border-collapse: collapse; width: 600px;'&gt;
-    &lt;thead&gt;
-        &lt;tr&gt;
-            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;총건수&lt;/th&gt;
-            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;처리건수&lt;/th&gt;
-            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;미처리건수&lt;/th&gt;
-            &lt;th style='background-color: #FFCFD0; text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 12pt; font-weight: bold;'&gt;비고&lt;/th&gt;
-        &lt;/tr&gt;
-    &lt;/thead&gt;
-    &lt;tbody&gt;
-        &lt;tr&gt;
-            &lt;td style='text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 11pt;'&gt;{4}&lt;/td&gt;
-            &lt;td style='text-align: center; color: blue; font-family: "Malgun Gothic", sans-serif; font-size: 11pt; font-weight: bold;'&gt;{5}&lt;/td&gt;
-            &lt;td style='text-align: center; color: red; font-family: "Malgun Gothic", sans-serif; font-size: 11pt; font-weight: bold;'&gt;{6}&lt;/td&gt;
-            &lt;td style='text-align: center; font-family: "Malgun Gothic", sans-serif; font-size: 11pt;'&gt;{7}&lt;/td&gt;
-        &lt;/tr&gt;
-    &lt;/tbody&gt;
-&lt;/table&gt;</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1208,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
@@ -1484,7 +1486,7 @@
         <v>110</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>129</v>
@@ -1506,7 +1508,7 @@
         <v>123</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>129</v>
@@ -1672,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
